--- a/data_pulling/team_game_logs_1819/team_game_log_OKL.xlsx
+++ b/data_pulling/team_game_logs_1819/team_game_log_OKL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="117">
   <si>
     <t>game.awayTeamAbbreviation</t>
   </si>
@@ -271,6 +271,9 @@
     <t>ATL</t>
   </si>
   <si>
+    <t>UTA</t>
+  </si>
+  <si>
     <t>GSW</t>
   </si>
   <si>
@@ -359,6 +362,9 @@
   </si>
   <si>
     <t>2018-12-08T01:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2018-12-11T01:00:00.000Z</t>
   </si>
 </sst>
 </file>
@@ -716,7 +722,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BV25"/>
+  <dimension ref="A1:BV26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -951,13 +957,13 @@
         <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D2">
         <v>47571</v>
       </c>
       <c r="E2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F2">
         <v>6</v>
@@ -1181,7 +1187,7 @@
         <v>47594</v>
       </c>
       <c r="E3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F3">
         <v>4</v>
@@ -1405,7 +1411,7 @@
         <v>47606</v>
       </c>
       <c r="E4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F4">
         <v>9</v>
@@ -1629,7 +1635,7 @@
         <v>47634</v>
       </c>
       <c r="E5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F5">
         <v>6</v>
@@ -1853,7 +1859,7 @@
         <v>47654</v>
       </c>
       <c r="E6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -2077,7 +2083,7 @@
         <v>47672</v>
       </c>
       <c r="E7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -2301,7 +2307,7 @@
         <v>47680</v>
       </c>
       <c r="E8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F8">
         <v>9</v>
@@ -2519,13 +2525,13 @@
         <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D9">
         <v>47688</v>
       </c>
       <c r="E9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -2749,7 +2755,7 @@
         <v>47713</v>
       </c>
       <c r="E10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F10">
         <v>3</v>
@@ -2973,7 +2979,7 @@
         <v>47722</v>
       </c>
       <c r="E11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F11">
         <v>9</v>
@@ -3197,7 +3203,7 @@
         <v>47732</v>
       </c>
       <c r="E12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F12">
         <v>3</v>
@@ -3415,13 +3421,13 @@
         <v>73</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D13">
         <v>47751</v>
       </c>
       <c r="E13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -3645,7 +3651,7 @@
         <v>47765</v>
       </c>
       <c r="E14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F14">
         <v>6</v>
@@ -3869,7 +3875,7 @@
         <v>47778</v>
       </c>
       <c r="E15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F15">
         <v>8</v>
@@ -4093,7 +4099,7 @@
         <v>47802</v>
       </c>
       <c r="E16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F16">
         <v>7</v>
@@ -4317,7 +4323,7 @@
         <v>47816</v>
       </c>
       <c r="E17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F17">
         <v>3</v>
@@ -4535,13 +4541,13 @@
         <v>73</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D18">
         <v>47833</v>
       </c>
       <c r="E18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F18">
         <v>5</v>
@@ -4765,7 +4771,7 @@
         <v>47843</v>
       </c>
       <c r="E19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -4989,7 +4995,7 @@
         <v>47851</v>
       </c>
       <c r="E20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F20">
         <v>5</v>
@@ -5213,7 +5219,7 @@
         <v>47882</v>
       </c>
       <c r="E21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F21">
         <v>11</v>
@@ -5437,7 +5443,7 @@
         <v>47894</v>
       </c>
       <c r="E22" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F22">
         <v>7</v>
@@ -5655,13 +5661,13 @@
         <v>73</v>
       </c>
       <c r="C23" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D23">
         <v>47912</v>
       </c>
       <c r="E23" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F23">
         <v>8</v>
@@ -5879,13 +5885,13 @@
         <v>73</v>
       </c>
       <c r="C24" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D24">
         <v>47927</v>
       </c>
       <c r="E24" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F24">
         <v>6</v>
@@ -6103,13 +6109,13 @@
         <v>73</v>
       </c>
       <c r="C25" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D25">
         <v>47942</v>
       </c>
       <c r="E25" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F25">
         <v>6</v>
@@ -6316,6 +6322,230 @@
         <v>73</v>
       </c>
       <c r="BV25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:74">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26">
+        <v>47965</v>
+      </c>
+      <c r="E26" t="s">
+        <v>116</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>4</v>
+      </c>
+      <c r="H26">
+        <v>4</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26">
+        <v>113</v>
+      </c>
+      <c r="K26">
+        <v>113</v>
+      </c>
+      <c r="L26">
+        <v>12</v>
+      </c>
+      <c r="M26">
+        <v>12</v>
+      </c>
+      <c r="N26">
+        <v>17</v>
+      </c>
+      <c r="O26">
+        <v>17</v>
+      </c>
+      <c r="P26">
+        <v>64</v>
+      </c>
+      <c r="Q26">
+        <v>64</v>
+      </c>
+      <c r="R26">
+        <v>35</v>
+      </c>
+      <c r="S26">
+        <v>35</v>
+      </c>
+      <c r="T26">
+        <v>54.7</v>
+      </c>
+      <c r="U26">
+        <v>21</v>
+      </c>
+      <c r="V26">
+        <v>21</v>
+      </c>
+      <c r="W26">
+        <v>8</v>
+      </c>
+      <c r="X26">
+        <v>8</v>
+      </c>
+      <c r="Y26">
+        <v>38.1</v>
+      </c>
+      <c r="Z26">
+        <v>85</v>
+      </c>
+      <c r="AA26">
+        <v>85</v>
+      </c>
+      <c r="AB26">
+        <v>43</v>
+      </c>
+      <c r="AC26">
+        <v>43</v>
+      </c>
+      <c r="AD26">
+        <v>50.6</v>
+      </c>
+      <c r="AE26">
+        <v>39</v>
+      </c>
+      <c r="AF26">
+        <v>39</v>
+      </c>
+      <c r="AG26">
+        <v>28</v>
+      </c>
+      <c r="AH26">
+        <v>28</v>
+      </c>
+      <c r="AI26">
+        <v>71.8</v>
+      </c>
+      <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>0</v>
+      </c>
+      <c r="AL26">
+        <v>0</v>
+      </c>
+      <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26">
+        <v>0</v>
+      </c>
+      <c r="AO26">
+        <v>0</v>
+      </c>
+      <c r="AP26">
+        <v>0</v>
+      </c>
+      <c r="AQ26">
+        <v>0</v>
+      </c>
+      <c r="AR26">
+        <v>0</v>
+      </c>
+      <c r="AS26">
+        <v>26</v>
+      </c>
+      <c r="AT26">
+        <v>28</v>
+      </c>
+      <c r="AU26">
+        <v>28</v>
+      </c>
+      <c r="AV26">
+        <v>26</v>
+      </c>
+      <c r="AW26">
+        <v>26</v>
+      </c>
+      <c r="AX26">
+        <v>0</v>
+      </c>
+      <c r="AY26">
+        <v>0</v>
+      </c>
+      <c r="AZ26">
+        <v>1</v>
+      </c>
+      <c r="BA26">
+        <v>27</v>
+      </c>
+      <c r="BB26">
+        <v>28</v>
+      </c>
+      <c r="BC26">
+        <v>28</v>
+      </c>
+      <c r="BD26">
+        <v>27</v>
+      </c>
+      <c r="BE26">
+        <v>9</v>
+      </c>
+      <c r="BF26">
+        <v>9</v>
+      </c>
+      <c r="BG26">
+        <v>25</v>
+      </c>
+      <c r="BH26">
+        <v>25</v>
+      </c>
+      <c r="BI26">
+        <v>122</v>
+      </c>
+      <c r="BJ26">
+        <v>122</v>
+      </c>
+      <c r="BK26">
+        <v>31</v>
+      </c>
+      <c r="BL26">
+        <v>31</v>
+      </c>
+      <c r="BM26">
+        <v>12</v>
+      </c>
+      <c r="BN26">
+        <v>12</v>
+      </c>
+      <c r="BO26">
+        <v>43</v>
+      </c>
+      <c r="BP26">
+        <v>43</v>
+      </c>
+      <c r="BQ26">
+        <v>0</v>
+      </c>
+      <c r="BR26">
+        <v>0</v>
+      </c>
+      <c r="BS26">
+        <v>1</v>
+      </c>
+      <c r="BT26">
+        <v>1</v>
+      </c>
+      <c r="BU26" t="s">
+        <v>73</v>
+      </c>
+      <c r="BV26">
         <v>96</v>
       </c>
     </row>
